--- a/機械設計/_BOM/CU-AAS002.xlsx
+++ b/機械設計/_BOM/CU-AAS002.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8DBB385-BF68-4FDA-BB2A-DEAA120575FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F459B6AF-3266-44E4-81EF-557FB0DB289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{6FDD6CA7-E40E-4311-B9BB-8515D24EC916}"/>
+    <workbookView xWindow="42120" yWindow="6870" windowWidth="14400" windowHeight="10845" xr2:uid="{6A11EB26-725D-43AA-84DA-42319633727D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{6B59A606-79DF-47FB-B4F1-494ABCEEC3E6}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{5AC74FFA-D1FE-432F-95EF-561A501BDCFC}" mergeInterval="0" personalView="1" xWindow="2808" yWindow="458" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>種類</t>
   </si>
@@ -131,6 +131,21 @@
     <t>MISUMI</t>
   </si>
   <si>
+    <t>大喜多</t>
+  </si>
+  <si>
+    <t>DPS-C6X20</t>
+  </si>
+  <si>
+    <t>S45C</t>
+  </si>
+  <si>
+    <t>ダウエルピン</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>ABETTF6-90.0-M3-N3</t>
   </si>
   <si>
@@ -152,13 +167,19 @@
     <t>1日目</t>
   </si>
   <si>
-    <t>ボルト類</t>
-  </si>
-  <si>
-    <t>六角穴付きボルト M3x15</t>
-  </si>
-  <si>
-    <t>スチール</t>
+    <t>CBSTBR3-10</t>
+  </si>
+  <si>
+    <t>SCM435</t>
+  </si>
+  <si>
+    <t>超極低頭ﾎﾞﾙﾄ</t>
+  </si>
+  <si>
+    <t>CBSTSR4-8</t>
+  </si>
+  <si>
+    <t>SUS304相当</t>
   </si>
 </sst>
 </file>
@@ -242,8 +263,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D5EEDA7D-3D89-4C99-B236-EFAEF02C3212}">
-  <header guid="{D5EEDA7D-3D89-4C99-B236-EFAEF02C3212}" dateTime="2023-07-13T16:41:07" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{61E07880-BD53-4E15-A54F-D2396BAB183D}">
+  <header guid="{61E07880-BD53-4E15-A54F-D2396BAB183D}" dateTime="2023-07-16T16:38:14" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -555,8 +576,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D453FA-5F50-4C73-9E28-C2E8A4B4939A}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF3744D-A54C-47EA-8B70-16D1A9A276DF}">
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,11 +588,11 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
@@ -764,40 +785,46 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="3">
-        <v>710</v>
-      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -810,24 +837,24 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M6" s="3">
-        <v>1190</v>
+        <v>710</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>23</v>
@@ -842,36 +869,130 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1190</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="3">
+        <v>280</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="3">
+        <v>280</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6B59A606-79DF-47FB-B4F1-494ABCEEC3E6}">
+    <customSheetView guid="{5AC74FFA-D1FE-432F-95EF-561A501BDCFC}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
